--- a/Raspberry/lab10/student_data.xlsx
+++ b/Raspberry/lab10/student_data.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Mateo</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Piter</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Weimar YUpanaqui</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Alexitos</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/Raspberry/lab10/student_data.xlsx
+++ b/Raspberry/lab10/student_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
